--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive\Desktop\CSP2108\Week 7 Deliverable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\GameOfLife\GameOfLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24C819-BEDF-4D54-B6C7-ECF8B9EBC7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA33F52-18FF-4773-B067-B248139B739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29E807A5-50A5-4AD1-BC9B-BAA84AE5E3FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{29E807A5-50A5-4AD1-BC9B-BAA84AE5E3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -74,10 +74,49 @@
     <t>29th August</t>
   </si>
   <si>
-    <t>Looks like I add less code the longer I work on it :P (I can believe that)</t>
+    <t>Number of Files</t>
   </si>
   <si>
-    <t>Number of Files</t>
+    <t xml:space="preserve">12th September </t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>main.lua</t>
+  </si>
+  <si>
+    <t>cell.lua</t>
+  </si>
+  <si>
+    <t>data.lua</t>
+  </si>
+  <si>
+    <t>gameScene.lua</t>
+  </si>
+  <si>
+    <t>gameUserInterface.lua</t>
+  </si>
+  <si>
+    <t>loadScene.lua</t>
+  </si>
+  <si>
+    <t>LoadUserInterface.lua</t>
+  </si>
+  <si>
+    <t>saveScene.lua</t>
+  </si>
+  <si>
+    <t>saveUserInterface.lua</t>
+  </si>
+  <si>
+    <t>splashscreenScene.lua</t>
+  </si>
+  <si>
+    <t>LOD</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
   </si>
 </sst>
 </file>
@@ -88,7 +127,7 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +146,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -183,6 +230,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,10 +538,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>46.999999999999993</c:v>
                 </c:pt>
@@ -509,15 +563,18 @@
                 <c:pt idx="6">
                   <c:v>149.99999999999994</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$E$2:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -538,6 +595,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,10 +1105,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>46.999999999999993</c:v>
                 </c:pt>
@@ -1070,15 +1130,18 @@
                 <c:pt idx="6">
                   <c:v>149.99999999999994</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:f>Sheet1!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -1099,6 +1162,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,20 +2935,23 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="14" max="14" width="21.36328125" customWidth="1"/>
+    <col min="15" max="15" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,13 +2971,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="2"/>
+      <c r="N1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -2931,8 +3006,14 @@
       <c r="G2" s="13">
         <v>4</v>
       </c>
+      <c r="N2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="16">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2947,7 +3028,7 @@
         <v>136.99999999999991</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E8" si="0">F3-F2</f>
+        <f t="shared" ref="E3:E10" si="0">F3-F2</f>
         <v>136</v>
       </c>
       <c r="F3" s="5">
@@ -2956,8 +3037,14 @@
       <c r="G3" s="13">
         <v>5</v>
       </c>
+      <c r="N3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="16">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2981,10 +3068,16 @@
       <c r="G4" s="13">
         <v>6</v>
       </c>
+      <c r="N4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="16">
+        <v>26</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -3008,10 +3101,17 @@
       <c r="G5" s="13">
         <v>6</v>
       </c>
+      <c r="N5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="16">
+        <v>277</v>
+      </c>
+      <c r="Q5" s="14"/>
       <c r="R5" s="9"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -3022,7 +3122,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D8" si="1">((C6-B6)*24)*60</f>
+        <f t="shared" ref="D6:D9" si="1">((C6-B6)*24)*60</f>
         <v>119.99999999999989</v>
       </c>
       <c r="E6" s="5">
@@ -3035,10 +3135,16 @@
       <c r="G6" s="13">
         <v>8</v>
       </c>
+      <c r="N6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="16">
+        <v>228</v>
+      </c>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -3062,10 +3168,16 @@
       <c r="G7" s="13">
         <v>10</v>
       </c>
+      <c r="N7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="16">
+        <v>93</v>
+      </c>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -3089,21 +3201,49 @@
       <c r="G8" s="13">
         <v>10</v>
       </c>
+      <c r="N8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="16">
+        <v>96</v>
+      </c>
       <c r="R8" s="9"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1429</v>
+      </c>
+      <c r="G9" s="13">
+        <v>10</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="16">
+        <v>157</v>
+      </c>
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3111,10 +3251,16 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="12"/>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="16">
+        <v>422</v>
+      </c>
       <c r="R10" s="9"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3122,9 +3268,15 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="12"/>
+      <c r="N11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="16">
+        <v>74</v>
+      </c>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3132,8 +3284,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="12"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3141,8 +3295,10 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="12"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3150,8 +3306,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="12"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3159,8 +3317,10 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="12"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3168,8 +3328,10 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="12"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3177,13 +3339,27 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="15">
+        <f>O2+O3+O4+O5+O6+O7+O8+O9+O10+O11</f>
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3191,7 +3367,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\GameOfLife\GameOfLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA33F52-18FF-4773-B067-B248139B739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5C77EB-F866-4A96-8A2B-E59B341B8F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{29E807A5-50A5-4AD1-BC9B-BAA84AE5E3FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>17th September</t>
+  </si>
+  <si>
+    <t>saver</t>
+  </si>
+  <si>
+    <t>loader</t>
   </si>
 </sst>
 </file>
@@ -566,6 +575,9 @@
                 <c:pt idx="7">
                   <c:v>90</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -598,6 +610,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,6 +1148,9 @@
                 <c:pt idx="7">
                   <c:v>90</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1165,6 +1183,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,7 +2956,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3122,7 +3143,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D9" si="1">((C6-B6)*24)*60</f>
+        <f t="shared" ref="D6:D10" si="1">((C6-B6)*24)*60</f>
         <v>119.99999999999989</v>
       </c>
       <c r="E6" s="5">
@@ -3172,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="16">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
@@ -3205,7 +3226,7 @@
         <v>21</v>
       </c>
       <c r="O8" s="16">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="10"/>
@@ -3244,13 +3265,29 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1688</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12</v>
+      </c>
       <c r="N10" s="16" t="s">
         <v>23</v>
       </c>
@@ -3284,8 +3321,12 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="12"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="N12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="16">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
@@ -3295,8 +3336,12 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="12"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="N13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="16">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
@@ -3306,8 +3351,8 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="12"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
@@ -3317,8 +3362,8 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="12"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
@@ -3328,8 +3373,8 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="12"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3339,24 +3384,24 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N20" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O20" s="15">
-        <f>O2+O3+O4+O5+O6+O7+O8+O9+O10+O11</f>
-        <v>1429</v>
+        <f>O2+O3+O4+O5+O6+O7+O8+O9+O10+O11+O12+O13+O14+O15</f>
+        <v>1688</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\GameOfLife\GameOfLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5C77EB-F866-4A96-8A2B-E59B341B8F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A38D2D-A4AE-46CF-A84C-D7A047994F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{29E807A5-50A5-4AD1-BC9B-BAA84AE5E3FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>loader</t>
+  </si>
+  <si>
+    <t>18th September</t>
   </si>
 </sst>
 </file>
@@ -578,6 +581,9 @@
                 <c:pt idx="8">
                   <c:v>270</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -613,6 +619,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,6 +1160,9 @@
                 <c:pt idx="8">
                   <c:v>270</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1186,6 +1198,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,7 +2971,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3049,7 +3064,7 @@
         <v>136.99999999999991</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E10" si="0">F3-F2</f>
+        <f t="shared" ref="E3:E11" si="0">F3-F2</f>
         <v>136</v>
       </c>
       <c r="F3" s="5">
@@ -3093,7 +3108,7 @@
         <v>17</v>
       </c>
       <c r="O4" s="16">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
@@ -3143,7 +3158,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D10" si="1">((C6-B6)*24)*60</f>
+        <f t="shared" ref="D6:D11" si="1">((C6-B6)*24)*60</f>
         <v>119.99999999999989</v>
       </c>
       <c r="E6" s="5">
@@ -3193,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="16">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="10"/>
@@ -3226,7 +3241,7 @@
         <v>21</v>
       </c>
       <c r="O8" s="16">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="10"/>
@@ -3259,7 +3274,7 @@
         <v>22</v>
       </c>
       <c r="O9" s="16">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="10"/>
@@ -3292,19 +3307,35 @@
         <v>23</v>
       </c>
       <c r="O10" s="16">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="R10" s="9"/>
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1778</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12</v>
+      </c>
       <c r="N11" s="16" t="s">
         <v>24</v>
       </c>
@@ -3340,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="16">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -3401,7 +3432,7 @@
       </c>
       <c r="O20" s="15">
         <f>O2+O3+O4+O5+O6+O7+O8+O9+O10+O11+O12+O13+O14+O15</f>
-        <v>1688</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\GameOfLife\GameOfLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A38D2D-A4AE-46CF-A84C-D7A047994F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120914F7-5D5E-4240-99BC-F5EA2F327B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{29E807A5-50A5-4AD1-BC9B-BAA84AE5E3FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,15 @@
   <si>
     <t>18th September</t>
   </si>
+  <si>
+    <t>TOTAL TIME:</t>
+  </si>
+  <si>
+    <t>mins</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -248,6 +257,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2971,7 +2983,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3407,7 +3419,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3418,21 +3430,42 @@
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="N20" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O20" s="15">
         <f>O2+O3+O4+O5+O6+O7+O8+O9+O10+O11+O12+O13+O14+O15</f>
         <v>1778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O29" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="17">
+        <f>D2+D3+D4+D5+D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16</f>
+        <v>1338.9999999999998</v>
+      </c>
+      <c r="P30">
+        <f>O30/60</f>
+        <v>22.316666666666663</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">

--- a/TimeTracking.xlsx
+++ b/TimeTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Projects\GameOfLife\GameOfLife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120914F7-5D5E-4240-99BC-F5EA2F327B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F3D09-DE1E-40A9-8D06-A3EA04809615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{29E807A5-50A5-4AD1-BC9B-BAA84AE5E3FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>19th September</t>
   </si>
 </sst>
 </file>
@@ -596,6 +599,9 @@
                 <c:pt idx="9">
                   <c:v>90</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.00000000000011</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -634,6 +640,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,6 +1184,9 @@
                 <c:pt idx="9">
                   <c:v>90</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>105.00000000000011</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1213,6 +1225,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,7 +2998,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3076,7 +3091,7 @@
         <v>136.99999999999991</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E11" si="0">F3-F2</f>
+        <f t="shared" ref="E3:E12" si="0">F3-F2</f>
         <v>136</v>
       </c>
       <c r="F3" s="5">
@@ -3089,7 +3104,7 @@
         <v>16</v>
       </c>
       <c r="O3" s="16">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -3120,7 +3135,7 @@
         <v>17</v>
       </c>
       <c r="O4" s="16">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="10"/>
@@ -3170,7 +3185,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ref="D6:D11" si="1">((C6-B6)*24)*60</f>
+        <f t="shared" ref="D6:D12" si="1">((C6-B6)*24)*60</f>
         <v>119.99999999999989</v>
       </c>
       <c r="E6" s="5">
@@ -3187,7 +3202,7 @@
         <v>19</v>
       </c>
       <c r="O6" s="16">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="10"/>
@@ -3357,13 +3372,29 @@
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>105.00000000000011</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1801</v>
+      </c>
+      <c r="G12" s="5">
+        <v>12</v>
+      </c>
       <c r="N12" s="16" t="s">
         <v>28</v>
       </c>
@@ -3383,7 +3414,7 @@
         <v>29</v>
       </c>
       <c r="O13" s="16">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -3444,7 +3475,7 @@
       </c>
       <c r="O20" s="15">
         <f>O2+O3+O4+O5+O6+O7+O8+O9+O10+O11+O12+O13+O14+O15</f>
-        <v>1778</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -3461,11 +3492,11 @@
       </c>
       <c r="O30" s="17">
         <f>D2+D3+D4+D5+D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16</f>
-        <v>1338.9999999999998</v>
+        <v>1444</v>
       </c>
       <c r="P30">
         <f>O30/60</f>
-        <v>22.316666666666663</v>
+        <v>24.066666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
